--- a/NRI_STLF_Data/WeatherData/T_sari/T_sari95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_sari/T_sari95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_sari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_sari\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>Fog</t>
   </si>
@@ -251,12 +251,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -590,13 +590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -676,7 +676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -756,7 +756,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -836,7 +836,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -913,7 +913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -990,7 +990,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -13001,8 +13001,56 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>36</v>
+      </c>
+      <c r="G161">
+        <v>28</v>
+      </c>
+      <c r="H161">
+        <v>20</v>
+      </c>
+      <c r="I161">
+        <v>22</v>
+      </c>
+      <c r="J161">
+        <v>19</v>
+      </c>
+      <c r="K161">
+        <v>16</v>
+      </c>
+      <c r="L161">
+        <v>94</v>
+      </c>
+      <c r="M161">
+        <v>64</v>
+      </c>
+      <c r="N161">
+        <v>34</v>
+      </c>
+      <c r="O161">
+        <v>1015</v>
+      </c>
+      <c r="P161">
+        <v>1013</v>
+      </c>
+      <c r="Q161">
+        <v>1012</v>
+      </c>
+      <c r="U161">
+        <v>19</v>
+      </c>
+      <c r="V161">
+        <v>10</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -13018,8 +13066,68 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>35</v>
+      </c>
+      <c r="G162">
+        <v>28</v>
+      </c>
+      <c r="H162">
+        <v>22</v>
+      </c>
+      <c r="I162">
+        <v>24</v>
+      </c>
+      <c r="J162">
+        <v>21</v>
+      </c>
+      <c r="K162">
+        <v>19</v>
+      </c>
+      <c r="L162">
+        <v>94</v>
+      </c>
+      <c r="M162">
+        <v>68</v>
+      </c>
+      <c r="N162">
+        <v>39</v>
+      </c>
+      <c r="O162">
+        <v>1015</v>
+      </c>
+      <c r="P162">
+        <v>1013</v>
+      </c>
+      <c r="Q162">
+        <v>1011</v>
+      </c>
+      <c r="R162">
+        <v>10</v>
+      </c>
+      <c r="S162">
+        <v>10</v>
+      </c>
+      <c r="T162">
+        <v>10</v>
+      </c>
+      <c r="U162">
+        <v>19</v>
+      </c>
+      <c r="V162">
+        <v>8</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>1</v>
+      </c>
+      <c r="AA162">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -13035,8 +13143,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>34</v>
+      </c>
+      <c r="G163">
+        <v>28</v>
+      </c>
+      <c r="H163">
+        <v>22</v>
+      </c>
+      <c r="I163">
+        <v>23</v>
+      </c>
+      <c r="J163">
+        <v>21</v>
+      </c>
+      <c r="K163">
+        <v>19</v>
+      </c>
+      <c r="L163">
+        <v>94</v>
+      </c>
+      <c r="M163">
+        <v>68</v>
+      </c>
+      <c r="N163">
+        <v>41</v>
+      </c>
+      <c r="O163">
+        <v>1014</v>
+      </c>
+      <c r="P163">
+        <v>1012</v>
+      </c>
+      <c r="Q163">
+        <v>1011</v>
+      </c>
+      <c r="R163">
+        <v>10</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
+      <c r="U163">
+        <v>19</v>
+      </c>
+      <c r="V163">
+        <v>8</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>3</v>
+      </c>
+      <c r="AA163">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -13052,8 +13220,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>32</v>
+      </c>
+      <c r="G164">
+        <v>29</v>
+      </c>
+      <c r="H164">
+        <v>26</v>
+      </c>
+      <c r="I164">
+        <v>24</v>
+      </c>
+      <c r="J164">
+        <v>23</v>
+      </c>
+      <c r="K164">
+        <v>22</v>
+      </c>
+      <c r="L164">
+        <v>84</v>
+      </c>
+      <c r="M164">
+        <v>71</v>
+      </c>
+      <c r="N164">
+        <v>58</v>
+      </c>
+      <c r="O164">
+        <v>1014</v>
+      </c>
+      <c r="P164">
+        <v>1012</v>
+      </c>
+      <c r="Q164">
+        <v>1011</v>
+      </c>
+      <c r="R164">
+        <v>10</v>
+      </c>
+      <c r="S164">
+        <v>10</v>
+      </c>
+      <c r="T164">
+        <v>10</v>
+      </c>
+      <c r="U164">
+        <v>19</v>
+      </c>
+      <c r="V164">
+        <v>10</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>4</v>
+      </c>
+      <c r="AA164">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -13069,8 +13297,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>34</v>
+      </c>
+      <c r="G165">
+        <v>28</v>
+      </c>
+      <c r="H165">
+        <v>23</v>
+      </c>
+      <c r="I165">
+        <v>25</v>
+      </c>
+      <c r="J165">
+        <v>22</v>
+      </c>
+      <c r="K165">
+        <v>20</v>
+      </c>
+      <c r="L165">
+        <v>94</v>
+      </c>
+      <c r="M165">
+        <v>75</v>
+      </c>
+      <c r="N165">
+        <v>44</v>
+      </c>
+      <c r="O165">
+        <v>1011</v>
+      </c>
+      <c r="P165">
+        <v>1008</v>
+      </c>
+      <c r="Q165">
+        <v>1005</v>
+      </c>
+      <c r="R165">
+        <v>10</v>
+      </c>
+      <c r="S165">
+        <v>10</v>
+      </c>
+      <c r="T165">
+        <v>8</v>
+      </c>
+      <c r="U165">
+        <v>19</v>
+      </c>
+      <c r="V165">
+        <v>8</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>3</v>
+      </c>
+      <c r="AA165">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -13086,8 +13374,68 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>33</v>
+      </c>
+      <c r="G166">
+        <v>28</v>
+      </c>
+      <c r="H166">
+        <v>23</v>
+      </c>
+      <c r="I166">
+        <v>27</v>
+      </c>
+      <c r="J166">
+        <v>24</v>
+      </c>
+      <c r="K166">
+        <v>22</v>
+      </c>
+      <c r="L166">
+        <v>94</v>
+      </c>
+      <c r="M166">
+        <v>81</v>
+      </c>
+      <c r="N166">
+        <v>63</v>
+      </c>
+      <c r="O166">
+        <v>1008</v>
+      </c>
+      <c r="P166">
+        <v>1005</v>
+      </c>
+      <c r="Q166">
+        <v>1003</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>7</v>
+      </c>
+      <c r="U166">
+        <v>19</v>
+      </c>
+      <c r="V166">
+        <v>11</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>4</v>
+      </c>
+      <c r="AA166">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -13103,8 +13451,74 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>30</v>
+      </c>
+      <c r="G167">
+        <v>26</v>
+      </c>
+      <c r="H167">
+        <v>21</v>
+      </c>
+      <c r="I167">
+        <v>25</v>
+      </c>
+      <c r="J167">
+        <v>23</v>
+      </c>
+      <c r="K167">
+        <v>21</v>
+      </c>
+      <c r="L167">
+        <v>100</v>
+      </c>
+      <c r="M167">
+        <v>82</v>
+      </c>
+      <c r="N167">
+        <v>58</v>
+      </c>
+      <c r="O167">
+        <v>1013</v>
+      </c>
+      <c r="P167">
+        <v>1010</v>
+      </c>
+      <c r="Q167">
+        <v>1007</v>
+      </c>
+      <c r="R167">
+        <v>10</v>
+      </c>
+      <c r="S167">
+        <v>9</v>
+      </c>
+      <c r="T167">
+        <v>1</v>
+      </c>
+      <c r="U167">
+        <v>29</v>
+      </c>
+      <c r="V167">
+        <v>10</v>
+      </c>
+      <c r="W167">
+        <v>50</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>6</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13120,8 +13534,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>30</v>
+      </c>
+      <c r="G168">
+        <v>27</v>
+      </c>
+      <c r="H168">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13137,8 +13560,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>32</v>
+      </c>
+      <c r="G169">
+        <v>28</v>
+      </c>
+      <c r="H169">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13154,8 +13586,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>29</v>
+      </c>
+      <c r="G170">
+        <v>26</v>
+      </c>
+      <c r="H170">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13171,8 +13612,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>29</v>
+      </c>
+      <c r="G171">
+        <v>26</v>
+      </c>
+      <c r="H171">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13188,8 +13638,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>25</v>
+      </c>
+      <c r="G172">
+        <v>23</v>
+      </c>
+      <c r="H172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13206,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13223,7 +13682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13240,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13257,7 +13716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13274,7 +13733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13291,7 +13750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13308,7 +13767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13325,7 +13784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13342,7 +13801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13359,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13376,7 +13835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13393,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13410,7 +13869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13427,7 +13886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13444,7 +13903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13461,7 +13920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13478,7 +13937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13495,7 +13954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13512,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13529,7 +13988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13546,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13563,7 +14022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13580,7 +14039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13597,7 +14056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13614,7 +14073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13631,7 +14090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13648,7 +14107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13665,7 +14124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13682,7 +14141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13699,7 +14158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13716,7 +14175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13733,7 +14192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13750,7 +14209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13767,7 +14226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13784,7 +14243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13801,7 +14260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13818,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13835,7 +14294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13852,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13869,7 +14328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13886,7 +14345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13903,7 +14362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13920,7 +14379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -13937,7 +14396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -13954,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -13971,7 +14430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -13988,7 +14447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -14005,7 +14464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -14022,7 +14481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -14039,7 +14498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -14056,7 +14515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -14073,7 +14532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -14090,7 +14549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -14107,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14124,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14141,7 +14600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14158,7 +14617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14175,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14192,7 +14651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14209,7 +14668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14226,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14243,7 +14702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14260,7 +14719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14277,7 +14736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14294,7 +14753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14311,7 +14770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14328,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14345,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14362,7 +14821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14379,7 +14838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14396,7 +14855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14413,7 +14872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14430,7 +14889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14447,7 +14906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14464,7 +14923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14481,7 +14940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14498,7 +14957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14515,7 +14974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14532,7 +14991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14549,7 +15008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14566,7 +15025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14583,7 +15042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14600,7 +15059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14617,7 +15076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14634,7 +15093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14651,7 +15110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14668,7 +15127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14685,7 +15144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14702,7 +15161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14719,7 +15178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14736,7 +15195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14753,7 +15212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14770,7 +15229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14787,7 +15246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14804,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14821,7 +15280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14838,7 +15297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14855,7 +15314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14872,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14889,7 +15348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14906,7 +15365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14923,7 +15382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -14940,7 +15399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -14957,7 +15416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -14974,7 +15433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -14991,7 +15450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -15008,7 +15467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -15025,7 +15484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -15042,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -15059,7 +15518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -15076,7 +15535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -15093,7 +15552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15110,7 +15569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15127,7 +15586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15144,7 +15603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15161,7 +15620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15178,7 +15637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15195,7 +15654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15212,7 +15671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15229,7 +15688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15246,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15263,7 +15722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15280,7 +15739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15297,7 +15756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15314,7 +15773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15331,7 +15790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15348,7 +15807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15365,7 +15824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15382,7 +15841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15399,7 +15858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15416,7 +15875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15433,7 +15892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15450,7 +15909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15467,7 +15926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15484,7 +15943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15501,7 +15960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15518,7 +15977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15535,7 +15994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15552,7 +16011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15569,7 +16028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15586,7 +16045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15603,7 +16062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15620,7 +16079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15637,7 +16096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15654,7 +16113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15671,7 +16130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15688,7 +16147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15705,7 +16164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15722,7 +16181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15739,7 +16198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15756,7 +16215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15773,7 +16232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15790,7 +16249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15807,7 +16266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15824,7 +16283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15841,7 +16300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15858,7 +16317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15875,7 +16334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15892,7 +16351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15909,7 +16368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15926,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -15943,7 +16402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -15960,7 +16419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -15977,7 +16436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -15994,7 +16453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -16011,7 +16470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -16028,7 +16487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -16045,7 +16504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -16062,7 +16521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -16079,7 +16538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -16096,7 +16555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -16113,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16130,7 +16589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16147,7 +16606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16164,7 +16623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16181,7 +16640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16198,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16215,7 +16674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16232,7 +16691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16249,7 +16708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16266,7 +16725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16283,7 +16742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16300,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16317,7 +16776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16334,7 +16793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16351,7 +16810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16368,7 +16827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16385,7 +16844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16402,7 +16861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16419,7 +16878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16436,7 +16895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16453,7 +16912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16470,7 +16929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16498,7 +16957,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16510,7 +16969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
